--- a/Examples/StockAnalysisWolfram/Stocks.xlsx
+++ b/Examples/StockAnalysisWolfram/Stocks.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09020AB6-3290-44F5-9554-E1CE45866B08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE72F502-AD58-48BC-9842-C4246C35C292}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Stock</t>
   </si>
@@ -55,22 +55,10 @@
     <t>SP500</t>
   </si>
   <si>
-    <t>1019.3 US dollars</t>
-  </si>
-  <si>
-    <t>779.769 US dollars</t>
-  </si>
-  <si>
-    <t>5782.95 US dollars</t>
-  </si>
-  <si>
-    <t>11081.9 US dollars</t>
-  </si>
-  <si>
-    <t>64.85 euros</t>
-  </si>
-  <si>
-    <t>59.277 US dollars</t>
+    <t>1023.61 US dollars</t>
+  </si>
+  <si>
+    <t>805.54 US dollars</t>
   </si>
 </sst>
 </file>
@@ -131,21 +119,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>494705</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>189905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC26E00C-49D8-4EF5-8EEF-68F1DB9EB606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AF0D8E-DAAC-4A79-8B1A-A47BEE9F4D3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -161,359 +149,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="571500"/>
-          <a:ext cx="4761905" cy="4761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>494705</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>189905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CB4B74-6A15-45A3-9DCD-D5FA81A6439A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="762000"/>
-          <a:ext cx="4761905" cy="4761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>494705</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>189905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB84973-2254-4216-A0CA-D12887F79805}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="1828800" y="190500"/>
-          <a:ext cx="4761905" cy="4761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>494705</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>189905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C85FC66-2F44-4A02-BB0A-79739FAC4722}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="381000"/>
-          <a:ext cx="4761905" cy="4761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>37505</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>151805</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975031B0-594A-487D-8F0A-9D0A0E7EC2ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1981200" y="723900"/>
-          <a:ext cx="4761905" cy="4761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>37505</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>151805</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C2ED17-51E5-48DB-8A04-457F3B96C8A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1981200" y="914400"/>
-          <a:ext cx="4761905" cy="4761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>494705</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>189905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA6EE01-6F56-428B-BFD9-AFF4650EC51B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="952500"/>
-          <a:ext cx="4761905" cy="4761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>494705</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>189905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6C6B3F-0B45-4B44-B9BE-FAC85D750AFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="1143000"/>
-          <a:ext cx="4761905" cy="4761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>494705</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>189905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00107975-2E25-49EA-BC2B-86398EA91A61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="1333500"/>
           <a:ext cx="4761905" cy="4761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -792,7 +428,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,9 +473,6 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -848,9 +481,6 @@
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -859,9 +489,6 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -870,9 +497,6 @@
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7">
-        <v>294176</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -881,9 +505,6 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -891,9 +512,6 @@
       </c>
       <c r="B9">
         <v>5</v>
-      </c>
-      <c r="C9">
-        <v>75.400000000000006</v>
       </c>
     </row>
   </sheetData>
